--- a/Code/visualize/test.xlsx
+++ b/Code/visualize/test.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C15">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="C17">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="C18">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="C20">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="C21">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="C32">
-        <v>1.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="C33">
-        <v>1.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="C34">
-        <v>1.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="C35">
-        <v>1.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="C36">
-        <v>1.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="C37">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="C38">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="C39">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="C40">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="C41">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="C52">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="C53">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="C54">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="C55">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="C56">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="C57">
-        <v>2.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="C58">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="C60">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="C61">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="C72">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="C73">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C74">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C75">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C76">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="C77">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="C78">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
+        <v>4.7</v>
+      </c>
+      <c r="C85">
         <v>3.9</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="C92">
-        <v>4.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C93">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C94">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>4.7</v>
       </c>
       <c r="C96">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>4.7</v>
       </c>
       <c r="C99">
-        <v>4.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>4.7</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="C112">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="C113">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="C114">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="C115">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="C116">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="C117">
-        <v>5.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="C118">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="C119">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="C120">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="C121">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="C132">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="C133">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="C134">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="C135">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="C136">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="C137">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="C138">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="C139">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="C140">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="C141">
-        <v>6.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="C142">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,2210 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>4.7</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>4.7</v>
+      </c>
+      <c r="C153">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>4.7</v>
+      </c>
+      <c r="C154">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>4.7</v>
+      </c>
+      <c r="C155">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>4.7</v>
+      </c>
+      <c r="C156">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>4.7</v>
+      </c>
+      <c r="C157">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>4.7</v>
+      </c>
+      <c r="C158">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>4.7</v>
+      </c>
+      <c r="C159">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>4.7</v>
+      </c>
+      <c r="C160">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>4.7</v>
+      </c>
+      <c r="C161">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>4.6</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>4.7</v>
+      </c>
+      <c r="C163">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>4.7</v>
+      </c>
+      <c r="C164">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>4.7</v>
+      </c>
+      <c r="C165">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>4.7</v>
+      </c>
+      <c r="C166">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>4.7</v>
+      </c>
+      <c r="C167">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>4.7</v>
+      </c>
+      <c r="C168">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>4.7</v>
+      </c>
+      <c r="C169">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>4.7</v>
+      </c>
+      <c r="C170">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>4.7</v>
+      </c>
+      <c r="C171">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>4.7</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>4.7</v>
+      </c>
+      <c r="C173">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>4.7</v>
+      </c>
+      <c r="C174">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>4.8</v>
+      </c>
+      <c r="C175">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>4.8</v>
+      </c>
+      <c r="C176">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>4.7</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>4.7</v>
+      </c>
+      <c r="C178">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>4.7</v>
+      </c>
+      <c r="C179">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>4.7</v>
+      </c>
+      <c r="C180">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>4.7</v>
+      </c>
+      <c r="C181">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>4.7</v>
+      </c>
+      <c r="C182">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>4.7</v>
+      </c>
+      <c r="C183">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>4.7</v>
+      </c>
+      <c r="C184">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>4.7</v>
+      </c>
+      <c r="C185">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>4.7</v>
+      </c>
+      <c r="C186">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>4.7</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>4.7</v>
+      </c>
+      <c r="C188">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>4.7</v>
+      </c>
+      <c r="C189">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>4.7</v>
+      </c>
+      <c r="C190">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>4.7</v>
+      </c>
+      <c r="C191">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>4.7</v>
+      </c>
+      <c r="C192">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>4.7</v>
+      </c>
+      <c r="C193">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>4.7</v>
+      </c>
+      <c r="C194">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>4.7</v>
+      </c>
+      <c r="C195">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>4.7</v>
+      </c>
+      <c r="C196">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>4.7</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>4.7</v>
+      </c>
+      <c r="C198">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>4.7</v>
+      </c>
+      <c r="C199">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>4.7</v>
+      </c>
+      <c r="C200">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>4.7</v>
+      </c>
+      <c r="C201">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>4.7</v>
+      </c>
+      <c r="C202">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>4.7</v>
+      </c>
+      <c r="C203">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>4.7</v>
+      </c>
+      <c r="C204">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>4.7</v>
+      </c>
+      <c r="C205">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>4.7</v>
+      </c>
+      <c r="C206">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>4.7</v>
+      </c>
+      <c r="C207">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>4.7</v>
+      </c>
+      <c r="C208">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>4.8</v>
+      </c>
+      <c r="C209">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>4.8</v>
+      </c>
+      <c r="C210">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>4.8</v>
+      </c>
+      <c r="C211">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>4.7</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>4.7</v>
+      </c>
+      <c r="C213">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>4.7</v>
+      </c>
+      <c r="C214">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>4.7</v>
+      </c>
+      <c r="C215">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>4.7</v>
+      </c>
+      <c r="C216">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>4.7</v>
+      </c>
+      <c r="C217">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>4.7</v>
+      </c>
+      <c r="C218">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>4.7</v>
+      </c>
+      <c r="C219">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>4.7</v>
+      </c>
+      <c r="C220">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>4.7</v>
+      </c>
+      <c r="C221">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>4.7</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>4.7</v>
+      </c>
+      <c r="C223">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>4.7</v>
+      </c>
+      <c r="C224">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>4.7</v>
+      </c>
+      <c r="C225">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>4.7</v>
+      </c>
+      <c r="C226">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>4.7</v>
+      </c>
+      <c r="C227">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>4.7</v>
+      </c>
+      <c r="C228">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>4.7</v>
+      </c>
+      <c r="C229">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>4.7</v>
+      </c>
+      <c r="C230">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>4.7</v>
+      </c>
+      <c r="C231">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>4.6</v>
+      </c>
+      <c r="C232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>4.7</v>
+      </c>
+      <c r="C233">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>4.7</v>
+      </c>
+      <c r="C234">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>4.7</v>
+      </c>
+      <c r="C235">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>4.7</v>
+      </c>
+      <c r="C236">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>4.7</v>
+      </c>
+      <c r="C237">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>4.7</v>
+      </c>
+      <c r="C238">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>4.7</v>
+      </c>
+      <c r="C239">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>4.7</v>
+      </c>
+      <c r="C240">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>4.7</v>
+      </c>
+      <c r="C241">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>4.7</v>
+      </c>
+      <c r="C242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>4.7</v>
+      </c>
+      <c r="C243">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>4.7</v>
+      </c>
+      <c r="C244">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>4.8</v>
+      </c>
+      <c r="C245">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>4.8</v>
+      </c>
+      <c r="C246">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>4.7</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>4.7</v>
+      </c>
+      <c r="C248">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>4.7</v>
+      </c>
+      <c r="C249">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>4.7</v>
+      </c>
+      <c r="C250">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>4.7</v>
+      </c>
+      <c r="C251">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>4.7</v>
+      </c>
+      <c r="C252">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>4.7</v>
+      </c>
+      <c r="C253">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>4.7</v>
+      </c>
+      <c r="C254">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>4.7</v>
+      </c>
+      <c r="C255">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>4.7</v>
+      </c>
+      <c r="C256">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>4.7</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>4.7</v>
+      </c>
+      <c r="C258">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>4.7</v>
+      </c>
+      <c r="C259">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>4.7</v>
+      </c>
+      <c r="C260">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>4.7</v>
+      </c>
+      <c r="C261">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>4.7</v>
+      </c>
+      <c r="C262">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>4.7</v>
+      </c>
+      <c r="C263">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>4.7</v>
+      </c>
+      <c r="C264">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>4.7</v>
+      </c>
+      <c r="C265">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>4.7</v>
+      </c>
+      <c r="C266">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>4.6</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>4.7</v>
+      </c>
+      <c r="C268">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>4.7</v>
+      </c>
+      <c r="C269">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>4.7</v>
+      </c>
+      <c r="C270">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>4.7</v>
+      </c>
+      <c r="C271">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>4.7</v>
+      </c>
+      <c r="C272">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>4.7</v>
+      </c>
+      <c r="C273">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>4.7</v>
+      </c>
+      <c r="C274">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>4.7</v>
+      </c>
+      <c r="C275">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>4.7</v>
+      </c>
+      <c r="C276">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>4.7</v>
+      </c>
+      <c r="C277">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>4.7</v>
+      </c>
+      <c r="C278">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>4.8</v>
+      </c>
+      <c r="C279">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>4.8</v>
+      </c>
+      <c r="C280">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>4.8</v>
+      </c>
+      <c r="C281">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>4.7</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>4.7</v>
+      </c>
+      <c r="C283">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>4.7</v>
+      </c>
+      <c r="C284">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>4.7</v>
+      </c>
+      <c r="C285">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>4.7</v>
+      </c>
+      <c r="C286">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>4.7</v>
+      </c>
+      <c r="C287">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>4.7</v>
+      </c>
+      <c r="C288">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>4.7</v>
+      </c>
+      <c r="C289">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>4.7</v>
+      </c>
+      <c r="C290">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>4.7</v>
+      </c>
+      <c r="C291">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>4.7</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>4.7</v>
+      </c>
+      <c r="C293">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>4.7</v>
+      </c>
+      <c r="C294">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>4.7</v>
+      </c>
+      <c r="C295">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>4.7</v>
+      </c>
+      <c r="C296">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>4.7</v>
+      </c>
+      <c r="C297">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>4.7</v>
+      </c>
+      <c r="C298">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>4.7</v>
+      </c>
+      <c r="C299">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>4.7</v>
+      </c>
+      <c r="C300">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>4.7</v>
+      </c>
+      <c r="C301">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>4.7</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>4.7</v>
+      </c>
+      <c r="C303">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>4.7</v>
+      </c>
+      <c r="C304">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>4.7</v>
+      </c>
+      <c r="C305">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>4.7</v>
+      </c>
+      <c r="C306">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>4.7</v>
+      </c>
+      <c r="C307">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>4.7</v>
+      </c>
+      <c r="C308">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>4.7</v>
+      </c>
+      <c r="C309">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>4.7</v>
+      </c>
+      <c r="C310">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>4.7</v>
+      </c>
+      <c r="C311">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>4.7</v>
+      </c>
+      <c r="C312">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>4.7</v>
+      </c>
+      <c r="C313">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>4.7</v>
+      </c>
+      <c r="C314">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>4.8</v>
+      </c>
+      <c r="C315">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>4.8</v>
+      </c>
+      <c r="C316">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>4.7</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>4.7</v>
+      </c>
+      <c r="C318">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>4.7</v>
+      </c>
+      <c r="C319">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>4.7</v>
+      </c>
+      <c r="C320">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>4.7</v>
+      </c>
+      <c r="C321">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>4.7</v>
+      </c>
+      <c r="C322">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>4.7</v>
+      </c>
+      <c r="C323">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>4.7</v>
+      </c>
+      <c r="C324">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>4.7</v>
+      </c>
+      <c r="C325">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>4.7</v>
+      </c>
+      <c r="C326">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>4.7</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>4.7</v>
+      </c>
+      <c r="C328">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>4.7</v>
+      </c>
+      <c r="C329">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>4.7</v>
+      </c>
+      <c r="C330">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>4.7</v>
+      </c>
+      <c r="C331">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>4.7</v>
+      </c>
+      <c r="C332">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>4.7</v>
+      </c>
+      <c r="C333">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>4.7</v>
+      </c>
+      <c r="C334">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>4.7</v>
+      </c>
+      <c r="C335">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>4.7</v>
+      </c>
+      <c r="C336">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>4.6</v>
+      </c>
+      <c r="C337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>4.7</v>
+      </c>
+      <c r="C338">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>4.7</v>
+      </c>
+      <c r="C339">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>4.7</v>
+      </c>
+      <c r="C340">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>4.7</v>
+      </c>
+      <c r="C341">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>4.7</v>
+      </c>
+      <c r="C342">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>4.7</v>
+      </c>
+      <c r="C343">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>4.7</v>
+      </c>
+      <c r="C344">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>4.7</v>
+      </c>
+      <c r="C345">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>4.7</v>
+      </c>
+      <c r="C346">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>4.7</v>
+      </c>
+      <c r="C347">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>4.7</v>
+      </c>
+      <c r="C348">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>4.7</v>
+      </c>
+      <c r="C349">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>4.8</v>
+      </c>
+      <c r="C350">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>4.8</v>
+      </c>
+      <c r="C351">
+        <v>10.2</v>
       </c>
     </row>
   </sheetData>
